--- a/OneClick Hotel/BISANGWA ONECLICK.xlsx
+++ b/OneClick Hotel/BISANGWA ONECLICK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\OneClick Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D364AB8-8E80-4E7B-B24D-09591C72F42F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0499B-A113-46FB-BBB8-E6B7EA5EBF09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66FAA32F-F05D-4218-8D02-3B71FCF29E3D}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
   <si>
     <r>
       <t>N</t>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>SDC010014500/4527</t>
+  </si>
+  <si>
+    <t>SDC010014500/4743</t>
+  </si>
+  <si>
+    <t>SDC010014500/4847</t>
+  </si>
+  <si>
+    <t>SDC010014500/4884</t>
+  </si>
+  <si>
+    <t>SDC010014500/4972</t>
+  </si>
+  <si>
+    <t>SDC010014500/5044</t>
+  </si>
+  <si>
+    <t>SDC010014500/5139</t>
+  </si>
+  <si>
+    <t>SDC010014500/5233</t>
   </si>
 </sst>
 </file>
@@ -625,13 +646,28 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -643,13 +679,43 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,51 +725,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB3DF8-86EE-404E-98B3-F460B5BA8A1A}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,13 +1075,13 @@
       <c r="E1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="51" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1070,9 +1091,9 @@
       <c r="C2" s="61"/>
       <c r="D2" s="62"/>
       <c r="E2" s="63"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="60"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
@@ -1090,14 +1111,14 @@
       <c r="E3" s="28">
         <v>227000</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="54">
         <f>E5+E4+E3</f>
         <v>862800</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="57">
         <v>44615</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1105,7 +1126,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1117,9 +1138,9 @@
       <c r="E4" s="8">
         <v>408400</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="59"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
@@ -1137,9 +1158,9 @@
       <c r="E5" s="13">
         <v>227400</v>
       </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="60"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1157,14 +1178,14 @@
       <c r="E6" s="5">
         <v>289000</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="54">
         <f>E9+E8+E7+E6</f>
         <v>881050</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="57">
         <v>44638</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1172,7 +1193,7 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1184,15 +1205,15 @@
       <c r="E7" s="8">
         <v>191300</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="59"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="52"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -1204,9 +1225,9 @@
       <c r="E8" s="18">
         <v>297200</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="59"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="52"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
@@ -1224,9 +1245,9 @@
       <c r="E9" s="21">
         <v>103550</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="60"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1244,11 +1265,11 @@
       <c r="E10" s="24">
         <v>130300</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="54">
         <f>E15+E14+E13+E12+E11+E10</f>
         <v>1185900</v>
       </c>
-      <c r="G10" s="52">
+      <c r="G10" s="60">
         <v>44655</v>
       </c>
       <c r="H10" s="64" t="s">
@@ -1259,7 +1280,7 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1271,15 +1292,15 @@
       <c r="E11" s="8">
         <v>322300</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="53"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1291,15 +1312,15 @@
       <c r="E12" s="8">
         <v>224200</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="49"/>
       <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1311,15 +1332,15 @@
       <c r="E13" s="8">
         <v>200250</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="49"/>
       <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1331,8 +1352,8 @@
       <c r="E14" s="8">
         <v>64400</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="53"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="49"/>
       <c r="H14" s="65"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1351,8 +1372,8 @@
       <c r="E15" s="13">
         <v>244450</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="54"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1371,14 +1392,14 @@
       <c r="E16" s="5">
         <v>76400</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="54">
         <f>E19+E18+E17+E16</f>
         <v>1024350</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="60">
         <v>44673</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1386,7 +1407,7 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -1398,15 +1419,15 @@
       <c r="E17" s="8">
         <v>344500</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="59"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="52"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -1418,9 +1439,9 @@
       <c r="E18" s="8">
         <v>284000</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="59"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -1438,9 +1459,9 @@
       <c r="E19" s="13">
         <v>319450</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="60"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1462,10 +1483,10 @@
         <f>E23+E21+E20+E22</f>
         <v>1110200</v>
       </c>
-      <c r="G20" s="53">
+      <c r="G20" s="49">
         <v>44688</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="51" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1473,7 +1494,7 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -1486,14 +1507,14 @@
         <v>222000</v>
       </c>
       <c r="F21" s="68"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="52"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -1506,8 +1527,8 @@
         <v>275700</v>
       </c>
       <c r="F22" s="68"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="52"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
@@ -1526,8 +1547,8 @@
         <v>220300</v>
       </c>
       <c r="F23" s="69"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1545,14 +1566,14 @@
       <c r="E24" s="37">
         <v>221600</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="54">
         <f>E28+E27+E26+E25+E24</f>
         <v>857200</v>
       </c>
-      <c r="G24" s="52">
+      <c r="G24" s="60">
         <v>44706</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="51" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1560,7 +1581,7 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -1572,15 +1593,15 @@
       <c r="E25" s="39">
         <v>194500</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="59"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1592,15 +1613,15 @@
       <c r="E26" s="41">
         <v>222200</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="59"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -1612,9 +1633,9 @@
       <c r="E27" s="41">
         <v>117700</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="59"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="52"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -1632,9 +1653,9 @@
       <c r="E28" s="43">
         <v>101200</v>
       </c>
-      <c r="F28" s="51"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="60"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="53"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -1652,18 +1673,22 @@
       <c r="E29" s="37">
         <v>270600</v>
       </c>
-      <c r="F29" s="49">
+      <c r="F29" s="54">
         <f>E29+E30+E31+E32+E33+E34+E35+E36</f>
         <v>2019700</v>
       </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="55"/>
+      <c r="G29" s="60">
+        <v>44733</v>
+      </c>
+      <c r="H29" s="70" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -1675,15 +1700,15 @@
       <c r="E30" s="41">
         <v>244200</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="56"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="71"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -1695,15 +1720,15 @@
       <c r="E31" s="39">
         <v>222800</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="56"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="71"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -1715,35 +1740,35 @@
       <c r="E32" s="39">
         <v>231200</v>
       </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="56"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47">
+      <c r="A33" s="46">
         <v>31</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="38">
-        <v>44721</v>
+        <v>44720</v>
       </c>
       <c r="E33" s="39">
         <v>179500</v>
       </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="56"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="71"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -1755,15 +1780,15 @@
       <c r="E34" s="39">
         <v>197100</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="56"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="71"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -1775,9 +1800,9 @@
       <c r="E35" s="39">
         <v>304000</v>
       </c>
-      <c r="F35" s="50"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="56"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="71"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -1795,20 +1820,163 @@
       <c r="E36" s="45">
         <v>370300</v>
       </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="57"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="72"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="36">
+        <v>44739</v>
+      </c>
+      <c r="E37" s="37">
+        <v>316900</v>
+      </c>
+      <c r="F37" s="54">
+        <f>E37+E39+E38+E40+E41+E42+E43</f>
+        <v>1496000</v>
+      </c>
+      <c r="G37" s="60"/>
+      <c r="H37" s="51"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
+        <v>36</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="40">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="41">
+        <v>170700</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="52"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="40">
+        <v>44746</v>
+      </c>
+      <c r="E39" s="41">
+        <v>146800</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="52"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="40">
+        <v>44749</v>
+      </c>
+      <c r="E40" s="41">
+        <v>193300</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="52"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="40">
+        <v>44753</v>
+      </c>
+      <c r="E41" s="41">
+        <v>196900</v>
+      </c>
+      <c r="F41" s="55"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="52"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="40">
+        <v>44756</v>
+      </c>
+      <c r="E42" s="41">
+        <v>183900</v>
+      </c>
+      <c r="F42" s="55"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="52"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="42">
+        <v>44760</v>
+      </c>
+      <c r="E43" s="43">
+        <v>287500</v>
+      </c>
+      <c r="F43" s="56"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
+  <mergeCells count="32">
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="G37:G43"/>
+    <mergeCell ref="H37:H43"/>
+    <mergeCell ref="F29:F36"/>
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="H29:H36"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="H24:H28"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F24:F28"/>
@@ -1825,11 +1993,14 @@
     <mergeCell ref="H16:H19"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F29:F36"/>
-    <mergeCell ref="G29:G36"/>
-    <mergeCell ref="H29:H36"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
